--- a/resume_extracted.xlsx
+++ b/resume_extracted.xlsx
@@ -1,93 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resume" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Mobile Phone</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Employer / Organizations</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>vishu1009@gmail.com</t>
-  </si>
-  <si>
-    <t>+91 8105445280</t>
-  </si>
-  <si>
-    <t>Transforming</t>
-  </si>
-  <si>
-    <t>Insights</t>
-  </si>
-  <si>
-    <t>(Power BI, Format 5, Statistics, Data Science, Leadership Principles, BERT, Dataiku, Sentence Transformers, Udemy  SQL Overview, YOLO, ML/DL, Credit Risk Prediction System Using Machine Learning Models Customer Churn Forecasting in Life Insurance Using XGBoost and, Raychem, L&amp;T InfoTech, Quality Assurance, AI, Freelance Professional Summary Data Science/AI, CEAT, Hehal, SBERT, Autoregressive Integrated Moving Average, Sentence-BERT, OpendTect, ICSE Board, Business Analytics, Hugging Face, Edge TTS, the Springboard’s Data Science Foundation, Business  Analytics Conference, Mistral, GitHub Actions,  Technical Excellence: Proficient in Python, SQL, CBSE Board, BlenderBot, AI/ML, Kubernetes, Exploratory Data Analysis, DagsHub, Udemy  Linear Regression, IEEE, Kolkata Quality, Image, Transfer Learning, Mahindra &amp; Mahindra Senior, the Certificate of Excellence, DVC, SAS  Statistics for Business-ii, MLOps, Big Data, Dataquest  Digital Analytics for Marketing Professionals, Data Mining, Oil &amp; gas, FFmpeg and Open AI Whisper, SAS, ML, Udemy  Insurance Essentials, Voice-Driven Semantic Matching System for Service Recommendations Objective: Developed, Udemy  Data Science Project, SHAP Explainability Fraud Detection, Education Manipal College of Pharmaceutical Sciences Pharmacy, Bangalore Sr., Bangalore Business, Udemy  Logit Regression in Python, UDEMY  Data Mining, ARIMA, Don Bosco Academy, The Institues  Introduction to Analytics, Medication, Allergy, Semantic, Mistral 7B LLM, Key Projects Voice-Based Conversational AI, Genpact Analytics, Grade, Git/GitHub, IHS Advanced Analytics, WEKA, Retrieval-Augmented Generation (RAG, Medicare, Microsoft, University of Waikato, Project Management, Edge, linear time- series data, Coursera  Introduction, Python, Datacore India Pvt. Ltd., Debugging SAS Programs, ICMS , EDX  Data Science and Machine Learning Essentials, AWS EC2, Digital/Innovation / Analytics COE, Udemy  Data Science and Machine Learning Essentials, SEG-Y Export Tool Objective: Developed a Python, Project/ People Management, Digital&amp; Innovation Jul, CI</t>
-  </si>
-  <si>
-    <t>Education Manipal College of Pharmaceutical Sciences Pharmacy (8.0 GPA) 2009 D.A.V. Hehal, Ranchi, CBSE Board 12th Grade (80%) 2004 Don Bosco Academy, ICSE Board 10th Grade (86%) 2002, Online Computing for Data Analysis using R from Coursera  MINITAB Quality training from MINITAB  AWS Machine Learning Speciality course from UDEMY  Data Mining with WEKA from University of Waikato., Analytics Case Studies from Udemy  SQL Overview from Udemy  Guide to diploma in Project Management from Udemy  Insurance Essentials from The Institues  Introduction to Analytics and Language of SAS from Udemy  Data Science and Machine Learning Essentials from edx  Predictive Modelling Fundamentals from BigdataUniversity </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -95,36 +42,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,70 +408,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="90" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Field</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Vishwajit</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Middle Name</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sen</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vishu1009@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mobile Phone</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+91 8105445280</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Social Links</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/vishwajit-sen-575ab031</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>